--- a/marvel-superheroes/useful_data/character_total.xlsx
+++ b/marvel-superheroes/useful_data/character_total.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Xiaoran Peng\si664_final\marvel-superheroes\useful_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{2F065206-57B2-4021-BF8B-4CBA5A6CC32B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{5D9FA807-A603-4FAE-AA12-7D4CC89F2614}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14448" windowHeight="5652" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6646" uniqueCount="873">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6646" uniqueCount="871">
   <si>
     <t>A-Bomb</t>
   </si>
@@ -1585,9 +1585,6 @@
     <t>MODOK</t>
   </si>
   <si>
-    <t>Brownn</t>
-  </si>
-  <si>
     <t>Mach-IV</t>
   </si>
   <si>
@@ -2171,9 +2168,6 @@
   </si>
   <si>
     <t>Simon Baz</t>
-  </si>
-  <si>
-    <t>bown</t>
   </si>
   <si>
     <t>Sinestro</t>
@@ -3481,66 +3475,66 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R715"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A612" workbookViewId="0">
-      <selection activeCell="F626" sqref="F626"/>
+    <sheetView tabSelected="1" topLeftCell="A396" workbookViewId="0">
+      <selection activeCell="F410" sqref="F410"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>862</v>
+      </c>
+      <c r="B1" t="s">
+        <v>853</v>
+      </c>
+      <c r="C1" t="s">
+        <v>863</v>
+      </c>
+      <c r="D1" t="s">
         <v>864</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" t="s">
+        <v>865</v>
+      </c>
+      <c r="F1" t="s">
+        <v>866</v>
+      </c>
+      <c r="G1" t="s">
+        <v>867</v>
+      </c>
+      <c r="H1" t="s">
+        <v>868</v>
+      </c>
+      <c r="I1" t="s">
+        <v>869</v>
+      </c>
+      <c r="J1" t="s">
+        <v>870</v>
+      </c>
+      <c r="K1" t="s">
+        <v>861</v>
+      </c>
+      <c r="L1" t="s">
+        <v>854</v>
+      </c>
+      <c r="M1" t="s">
         <v>855</v>
       </c>
-      <c r="C1" t="s">
-        <v>865</v>
-      </c>
-      <c r="D1" t="s">
-        <v>866</v>
-      </c>
-      <c r="E1" t="s">
-        <v>867</v>
-      </c>
-      <c r="F1" t="s">
-        <v>868</v>
-      </c>
-      <c r="G1" t="s">
-        <v>869</v>
-      </c>
-      <c r="H1" t="s">
-        <v>870</v>
-      </c>
-      <c r="I1" t="s">
-        <v>871</v>
-      </c>
-      <c r="J1" t="s">
-        <v>872</v>
-      </c>
-      <c r="K1" t="s">
-        <v>863</v>
-      </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>856</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>857</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>858</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>859</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>860</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>861</v>
-      </c>
-      <c r="R1" t="s">
-        <v>862</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
@@ -26363,7 +26357,7 @@
         <v>37</v>
       </c>
       <c r="F410" t="s">
-        <v>521</v>
+        <v>32</v>
       </c>
       <c r="G410" t="s">
         <v>6</v>
@@ -26404,7 +26398,7 @@
     </row>
     <row r="411" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B411" t="s">
         <v>17</v>
@@ -26460,7 +26454,7 @@
     </row>
     <row r="412" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B412" t="s">
         <v>1</v>
@@ -26516,7 +26510,7 @@
     </row>
     <row r="413" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B413" t="s">
         <v>17</v>
@@ -26572,7 +26566,7 @@
     </row>
     <row r="414" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B414" t="s">
         <v>1</v>
@@ -26628,7 +26622,7 @@
     </row>
     <row r="415" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B415" t="s">
         <v>17</v>
@@ -26684,7 +26678,7 @@
     </row>
     <row r="416" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B416" t="s">
         <v>7</v>
@@ -26740,7 +26734,7 @@
     </row>
     <row r="417" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B417" t="s">
         <v>141</v>
@@ -26796,7 +26790,7 @@
     </row>
     <row r="418" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B418" t="s">
         <v>1</v>
@@ -26852,7 +26846,7 @@
     </row>
     <row r="419" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B419" t="s">
         <v>1</v>
@@ -26908,7 +26902,7 @@
     </row>
     <row r="420" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B420" t="s">
         <v>17</v>
@@ -26964,7 +26958,7 @@
     </row>
     <row r="421" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B421" t="s">
         <v>1</v>
@@ -27020,7 +27014,7 @@
     </row>
     <row r="422" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B422" t="s">
         <v>1</v>
@@ -27032,7 +27026,7 @@
         <v>15</v>
       </c>
       <c r="E422" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="F422" t="s">
         <v>5</v>
@@ -27076,7 +27070,7 @@
     </row>
     <row r="423" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B423" t="s">
         <v>1</v>
@@ -27132,7 +27126,7 @@
     </row>
     <row r="424" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B424" t="s">
         <v>1</v>
@@ -27188,7 +27182,7 @@
     </row>
     <row r="425" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B425" t="s">
         <v>1</v>
@@ -27206,7 +27200,7 @@
         <v>32</v>
       </c>
       <c r="G425" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="H425" t="s">
         <v>7</v>
@@ -27244,7 +27238,7 @@
     </row>
     <row r="426" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B426" t="s">
         <v>17</v>
@@ -27300,7 +27294,7 @@
     </row>
     <row r="427" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B427" t="s">
         <v>1</v>
@@ -27356,7 +27350,7 @@
     </row>
     <row r="428" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B428" t="s">
         <v>1</v>
@@ -27412,7 +27406,7 @@
     </row>
     <row r="429" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B429" t="s">
         <v>17</v>
@@ -27468,7 +27462,7 @@
     </row>
     <row r="430" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B430" t="s">
         <v>1</v>
@@ -27524,7 +27518,7 @@
     </row>
     <row r="431" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B431" t="s">
         <v>1</v>
@@ -27580,7 +27574,7 @@
     </row>
     <row r="432" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B432" t="s">
         <v>1</v>
@@ -27636,7 +27630,7 @@
     </row>
     <row r="433" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B433" t="s">
         <v>17</v>
@@ -27692,7 +27686,7 @@
     </row>
     <row r="434" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B434" t="s">
         <v>1</v>
@@ -27748,7 +27742,7 @@
     </row>
     <row r="435" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B435" t="s">
         <v>17</v>
@@ -27804,7 +27798,7 @@
     </row>
     <row r="436" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B436" t="s">
         <v>1</v>
@@ -27860,7 +27854,7 @@
     </row>
     <row r="437" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B437" t="s">
         <v>1</v>
@@ -27916,7 +27910,7 @@
     </row>
     <row r="438" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B438" t="s">
         <v>1</v>
@@ -27972,7 +27966,7 @@
     </row>
     <row r="439" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B439" t="s">
         <v>1</v>
@@ -28028,7 +28022,7 @@
     </row>
     <row r="440" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B440" t="s">
         <v>1</v>
@@ -28084,7 +28078,7 @@
     </row>
     <row r="441" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A441" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B441" t="s">
         <v>1</v>
@@ -28140,7 +28134,7 @@
     </row>
     <row r="442" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A442" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B442" t="s">
         <v>1</v>
@@ -28196,7 +28190,7 @@
     </row>
     <row r="443" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B443" t="s">
         <v>1</v>
@@ -28252,7 +28246,7 @@
     </row>
     <row r="444" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A444" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B444" t="s">
         <v>1</v>
@@ -28308,7 +28302,7 @@
     </row>
     <row r="445" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A445" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B445" t="s">
         <v>1</v>
@@ -28364,7 +28358,7 @@
     </row>
     <row r="446" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A446" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B446" t="s">
         <v>1</v>
@@ -28420,7 +28414,7 @@
     </row>
     <row r="447" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A447" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B447" t="s">
         <v>17</v>
@@ -28476,7 +28470,7 @@
     </row>
     <row r="448" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A448" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B448" t="s">
         <v>17</v>
@@ -28488,7 +28482,7 @@
         <v>9</v>
       </c>
       <c r="E448" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="F448" t="s">
         <v>32</v>
@@ -28532,7 +28526,7 @@
     </row>
     <row r="449" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A449" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B449" t="s">
         <v>17</v>
@@ -28588,7 +28582,7 @@
     </row>
     <row r="450" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A450" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B450" t="s">
         <v>17</v>
@@ -28644,7 +28638,7 @@
     </row>
     <row r="451" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A451" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B451" t="s">
         <v>17</v>
@@ -28700,7 +28694,7 @@
     </row>
     <row r="452" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A452" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B452" t="s">
         <v>1</v>
@@ -28756,19 +28750,19 @@
     </row>
     <row r="453" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A453" t="s">
+        <v>566</v>
+      </c>
+      <c r="B453" t="s">
+        <v>1</v>
+      </c>
+      <c r="C453" t="s">
+        <v>2</v>
+      </c>
+      <c r="D453" t="s">
+        <v>7</v>
+      </c>
+      <c r="E453" t="s">
         <v>567</v>
-      </c>
-      <c r="B453" t="s">
-        <v>1</v>
-      </c>
-      <c r="C453" t="s">
-        <v>2</v>
-      </c>
-      <c r="D453" t="s">
-        <v>7</v>
-      </c>
-      <c r="E453" t="s">
-        <v>568</v>
       </c>
       <c r="F453" t="s">
         <v>7</v>
@@ -28812,7 +28806,7 @@
     </row>
     <row r="454" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A454" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B454" t="s">
         <v>1</v>
@@ -28868,7 +28862,7 @@
     </row>
     <row r="455" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A455" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B455" t="s">
         <v>17</v>
@@ -28924,7 +28918,7 @@
     </row>
     <row r="456" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A456" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B456" t="s">
         <v>17</v>
@@ -28939,7 +28933,7 @@
         <v>7</v>
       </c>
       <c r="F456" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="G456" t="s">
         <v>6</v>
@@ -28980,7 +28974,7 @@
     </row>
     <row r="457" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A457" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B457" t="s">
         <v>1</v>
@@ -29036,7 +29030,7 @@
     </row>
     <row r="458" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A458" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B458" t="s">
         <v>1</v>
@@ -29092,7 +29086,7 @@
     </row>
     <row r="459" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A459" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B459" t="s">
         <v>1</v>
@@ -29148,7 +29142,7 @@
     </row>
     <row r="460" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A460" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B460" t="s">
         <v>17</v>
@@ -29204,7 +29198,7 @@
     </row>
     <row r="461" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A461" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B461" t="s">
         <v>17</v>
@@ -29213,7 +29207,7 @@
         <v>2</v>
       </c>
       <c r="D461" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="E461" t="s">
         <v>7</v>
@@ -29260,7 +29254,7 @@
     </row>
     <row r="462" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A462" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B462" t="s">
         <v>1</v>
@@ -29316,7 +29310,7 @@
     </row>
     <row r="463" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A463" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B463" t="s">
         <v>17</v>
@@ -29372,7 +29366,7 @@
     </row>
     <row r="464" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A464" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B464" t="s">
         <v>1</v>
@@ -29428,7 +29422,7 @@
     </row>
     <row r="465" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A465" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B465" t="s">
         <v>1</v>
@@ -29484,7 +29478,7 @@
     </row>
     <row r="466" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A466" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B466" t="s">
         <v>1</v>
@@ -29540,7 +29534,7 @@
     </row>
     <row r="467" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A467" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B467" t="s">
         <v>1</v>
@@ -29596,7 +29590,7 @@
     </row>
     <row r="468" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A468" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B468" t="s">
         <v>17</v>
@@ -29652,7 +29646,7 @@
     </row>
     <row r="469" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A469" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B469" t="s">
         <v>17</v>
@@ -29667,7 +29661,7 @@
         <v>53</v>
       </c>
       <c r="F469" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="G469" t="s">
         <v>6</v>
@@ -29708,7 +29702,7 @@
     </row>
     <row r="470" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A470" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B470" t="s">
         <v>1</v>
@@ -29764,7 +29758,7 @@
     </row>
     <row r="471" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A471" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B471" t="s">
         <v>1</v>
@@ -29820,7 +29814,7 @@
     </row>
     <row r="472" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A472" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B472" t="s">
         <v>1</v>
@@ -29876,7 +29870,7 @@
     </row>
     <row r="473" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A473" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B473" t="s">
         <v>1</v>
@@ -29932,7 +29926,7 @@
     </row>
     <row r="474" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A474" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B474" t="s">
         <v>1</v>
@@ -29988,7 +29982,7 @@
     </row>
     <row r="475" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A475" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B475" t="s">
         <v>17</v>
@@ -30000,7 +29994,7 @@
         <v>9</v>
       </c>
       <c r="E475" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="F475" t="s">
         <v>5</v>
@@ -30044,7 +30038,7 @@
     </row>
     <row r="476" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A476" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B476" t="s">
         <v>1</v>
@@ -30100,7 +30094,7 @@
     </row>
     <row r="477" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A477" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B477" t="s">
         <v>1</v>
@@ -30156,7 +30150,7 @@
     </row>
     <row r="478" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A478" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B478" t="s">
         <v>1</v>
@@ -30212,7 +30206,7 @@
     </row>
     <row r="479" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A479" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B479" t="s">
         <v>1</v>
@@ -30268,7 +30262,7 @@
     </row>
     <row r="480" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A480" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B480" t="s">
         <v>1</v>
@@ -30324,7 +30318,7 @@
     </row>
     <row r="481" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A481" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B481" t="s">
         <v>1</v>
@@ -30380,7 +30374,7 @@
     </row>
     <row r="482" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A482" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B482" t="s">
         <v>1</v>
@@ -30436,7 +30430,7 @@
     </row>
     <row r="483" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A483" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B483" t="s">
         <v>1</v>
@@ -30492,7 +30486,7 @@
     </row>
     <row r="484" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A484" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B484" t="s">
         <v>1</v>
@@ -30548,7 +30542,7 @@
     </row>
     <row r="485" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A485" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B485" t="s">
         <v>1</v>
@@ -30604,7 +30598,7 @@
     </row>
     <row r="486" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A486" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B486" t="s">
         <v>1</v>
@@ -30660,7 +30654,7 @@
     </row>
     <row r="487" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A487" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B487" t="s">
         <v>17</v>
@@ -30716,7 +30710,7 @@
     </row>
     <row r="488" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A488" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B488" t="s">
         <v>1</v>
@@ -30772,7 +30766,7 @@
     </row>
     <row r="489" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A489" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B489" t="s">
         <v>1</v>
@@ -30828,7 +30822,7 @@
     </row>
     <row r="490" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A490" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B490" t="s">
         <v>141</v>
@@ -30884,7 +30878,7 @@
     </row>
     <row r="491" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A491" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B491" t="s">
         <v>17</v>
@@ -30940,7 +30934,7 @@
     </row>
     <row r="492" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A492" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B492" t="s">
         <v>1</v>
@@ -30996,7 +30990,7 @@
     </row>
     <row r="493" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A493" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B493" t="s">
         <v>1</v>
@@ -31052,7 +31046,7 @@
     </row>
     <row r="494" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A494" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B494" t="s">
         <v>17</v>
@@ -31108,7 +31102,7 @@
     </row>
     <row r="495" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A495" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B495" t="s">
         <v>17</v>
@@ -31164,7 +31158,7 @@
     </row>
     <row r="496" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A496" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B496" t="s">
         <v>17</v>
@@ -31176,7 +31170,7 @@
         <v>7</v>
       </c>
       <c r="E496" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F496" t="s">
         <v>7</v>
@@ -31220,7 +31214,7 @@
     </row>
     <row r="497" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A497" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B497" t="s">
         <v>1</v>
@@ -31276,7 +31270,7 @@
     </row>
     <row r="498" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A498" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B498" t="s">
         <v>1</v>
@@ -31332,7 +31326,7 @@
     </row>
     <row r="499" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A499" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B499" t="s">
         <v>1</v>
@@ -31388,7 +31382,7 @@
     </row>
     <row r="500" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A500" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B500" t="s">
         <v>1</v>
@@ -31444,7 +31438,7 @@
     </row>
     <row r="501" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A501" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B501" t="s">
         <v>17</v>
@@ -31500,7 +31494,7 @@
     </row>
     <row r="502" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A502" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B502" t="s">
         <v>1</v>
@@ -31556,7 +31550,7 @@
     </row>
     <row r="503" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A503" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B503" t="s">
         <v>1</v>
@@ -31612,7 +31606,7 @@
     </row>
     <row r="504" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A504" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B504" t="s">
         <v>1</v>
@@ -31668,7 +31662,7 @@
     </row>
     <row r="505" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A505" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B505" t="s">
         <v>1</v>
@@ -31724,7 +31718,7 @@
     </row>
     <row r="506" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A506" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B506" t="s">
         <v>17</v>
@@ -31780,7 +31774,7 @@
     </row>
     <row r="507" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A507" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B507" t="s">
         <v>1</v>
@@ -31836,7 +31830,7 @@
     </row>
     <row r="508" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A508" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B508" t="s">
         <v>1</v>
@@ -31892,7 +31886,7 @@
     </row>
     <row r="509" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A509" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B509" t="s">
         <v>17</v>
@@ -31948,7 +31942,7 @@
     </row>
     <row r="510" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A510" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B510" t="s">
         <v>17</v>
@@ -32004,7 +31998,7 @@
     </row>
     <row r="511" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A511" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B511" t="s">
         <v>1</v>
@@ -32060,7 +32054,7 @@
     </row>
     <row r="512" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A512" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B512" t="s">
         <v>1</v>
@@ -32116,7 +32110,7 @@
     </row>
     <row r="513" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A513" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B513" t="s">
         <v>1</v>
@@ -32172,7 +32166,7 @@
     </row>
     <row r="514" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A514" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B514" t="s">
         <v>17</v>
@@ -32184,7 +32178,7 @@
         <v>7</v>
       </c>
       <c r="E514" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="F514" t="s">
         <v>7</v>
@@ -32228,7 +32222,7 @@
     </row>
     <row r="515" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A515" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B515" t="s">
         <v>1</v>
@@ -32284,7 +32278,7 @@
     </row>
     <row r="516" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A516" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B516" t="s">
         <v>17</v>
@@ -32340,7 +32334,7 @@
     </row>
     <row r="517" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A517" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B517" t="s">
         <v>17</v>
@@ -32396,7 +32390,7 @@
     </row>
     <row r="518" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A518" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B518" t="s">
         <v>1</v>
@@ -32452,7 +32446,7 @@
     </row>
     <row r="519" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A519" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B519" t="s">
         <v>1</v>
@@ -32508,7 +32502,7 @@
     </row>
     <row r="520" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A520" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B520" t="s">
         <v>17</v>
@@ -32564,7 +32558,7 @@
     </row>
     <row r="521" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A521" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B521" t="s">
         <v>17</v>
@@ -32620,7 +32614,7 @@
     </row>
     <row r="522" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A522" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B522" t="s">
         <v>7</v>
@@ -32676,7 +32670,7 @@
     </row>
     <row r="523" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A523" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B523" t="s">
         <v>1</v>
@@ -32732,7 +32726,7 @@
     </row>
     <row r="524" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A524" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B524" t="s">
         <v>1</v>
@@ -32788,7 +32782,7 @@
     </row>
     <row r="525" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A525" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B525" t="s">
         <v>1</v>
@@ -32844,7 +32838,7 @@
     </row>
     <row r="526" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A526" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B526" t="s">
         <v>1</v>
@@ -32900,7 +32894,7 @@
     </row>
     <row r="527" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A527" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B527" t="s">
         <v>17</v>
@@ -32956,7 +32950,7 @@
     </row>
     <row r="528" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A528" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B528" t="s">
         <v>1</v>
@@ -33012,7 +33006,7 @@
     </row>
     <row r="529" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A529" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B529" t="s">
         <v>1</v>
@@ -33065,7 +33059,7 @@
     </row>
     <row r="530" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A530" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B530" t="s">
         <v>1</v>
@@ -33121,7 +33115,7 @@
     </row>
     <row r="531" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A531" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B531" t="s">
         <v>141</v>
@@ -33130,7 +33124,7 @@
         <v>29</v>
       </c>
       <c r="D531" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="E531" t="s">
         <v>4</v>
@@ -33177,7 +33171,7 @@
     </row>
     <row r="532" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A532" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B532" t="s">
         <v>1</v>
@@ -33233,7 +33227,7 @@
     </row>
     <row r="533" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A533" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B533" t="s">
         <v>17</v>
@@ -33289,7 +33283,7 @@
     </row>
     <row r="534" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A534" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B534" t="s">
         <v>1</v>
@@ -33345,7 +33339,7 @@
     </row>
     <row r="535" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A535" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B535" t="s">
         <v>141</v>
@@ -33401,7 +33395,7 @@
     </row>
     <row r="536" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A536" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B536" t="s">
         <v>141</v>
@@ -33457,7 +33451,7 @@
     </row>
     <row r="537" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A537" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B537" t="s">
         <v>17</v>
@@ -33513,7 +33507,7 @@
     </row>
     <row r="538" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A538" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B538" t="s">
         <v>1</v>
@@ -33569,7 +33563,7 @@
     </row>
     <row r="539" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A539" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B539" t="s">
         <v>17</v>
@@ -33625,7 +33619,7 @@
     </row>
     <row r="540" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A540" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B540" t="s">
         <v>1</v>
@@ -33681,7 +33675,7 @@
     </row>
     <row r="541" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A541" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B541" t="s">
         <v>17</v>
@@ -33737,7 +33731,7 @@
     </row>
     <row r="542" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A542" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B542" t="s">
         <v>17</v>
@@ -33793,7 +33787,7 @@
     </row>
     <row r="543" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A543" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B543" t="s">
         <v>1</v>
@@ -33849,7 +33843,7 @@
     </row>
     <row r="544" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A544" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B544" t="s">
         <v>1</v>
@@ -33905,7 +33899,7 @@
     </row>
     <row r="545" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A545" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B545" t="s">
         <v>17</v>
@@ -33961,7 +33955,7 @@
     </row>
     <row r="546" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A546" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B546" t="s">
         <v>17</v>
@@ -34017,7 +34011,7 @@
     </row>
     <row r="547" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A547" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B547" t="s">
         <v>17</v>
@@ -34073,7 +34067,7 @@
     </row>
     <row r="548" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A548" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B548" t="s">
         <v>1</v>
@@ -34129,7 +34123,7 @@
     </row>
     <row r="549" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A549" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B549" t="s">
         <v>1</v>
@@ -34185,7 +34179,7 @@
     </row>
     <row r="550" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A550" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B550" t="s">
         <v>1</v>
@@ -34241,7 +34235,7 @@
     </row>
     <row r="551" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A551" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B551" t="s">
         <v>1</v>
@@ -34297,7 +34291,7 @@
     </row>
     <row r="552" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A552" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B552" t="s">
         <v>1</v>
@@ -34353,7 +34347,7 @@
     </row>
     <row r="553" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A553" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B553" t="s">
         <v>1</v>
@@ -34409,7 +34403,7 @@
     </row>
     <row r="554" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A554" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B554" t="s">
         <v>141</v>
@@ -34465,7 +34459,7 @@
     </row>
     <row r="555" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A555" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B555" t="s">
         <v>1</v>
@@ -34521,7 +34515,7 @@
     </row>
     <row r="556" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A556" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B556" t="s">
         <v>1</v>
@@ -34577,7 +34571,7 @@
     </row>
     <row r="557" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A557" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B557" t="s">
         <v>1</v>
@@ -34633,7 +34627,7 @@
     </row>
     <row r="558" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A558" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B558" t="s">
         <v>1</v>
@@ -34689,7 +34683,7 @@
     </row>
     <row r="559" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A559" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B559" t="s">
         <v>17</v>
@@ -34698,7 +34692,7 @@
         <v>2</v>
       </c>
       <c r="D559" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="E559" t="s">
         <v>53</v>
@@ -34745,7 +34739,7 @@
     </row>
     <row r="560" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A560" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B560" t="s">
         <v>1</v>
@@ -34801,7 +34795,7 @@
     </row>
     <row r="561" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A561" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B561" t="s">
         <v>141</v>
@@ -34857,7 +34851,7 @@
     </row>
     <row r="562" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A562" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B562" t="s">
         <v>1</v>
@@ -34913,7 +34907,7 @@
     </row>
     <row r="563" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A563" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B563" t="s">
         <v>17</v>
@@ -34925,13 +34919,13 @@
         <v>7</v>
       </c>
       <c r="E563" t="s">
+        <v>685</v>
+      </c>
+      <c r="F563" t="s">
+        <v>7</v>
+      </c>
+      <c r="G563" t="s">
         <v>686</v>
-      </c>
-      <c r="F563" t="s">
-        <v>7</v>
-      </c>
-      <c r="G563" t="s">
-        <v>687</v>
       </c>
       <c r="H563" t="s">
         <v>7</v>
@@ -34969,7 +34963,7 @@
     </row>
     <row r="564" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A564" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B564" t="s">
         <v>1</v>
@@ -35025,7 +35019,7 @@
     </row>
     <row r="565" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A565" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B565" t="s">
         <v>17</v>
@@ -35081,7 +35075,7 @@
     </row>
     <row r="566" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A566" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B566" t="s">
         <v>1</v>
@@ -35137,7 +35131,7 @@
     </row>
     <row r="567" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A567" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B567" t="s">
         <v>1</v>
@@ -35149,7 +35143,7 @@
         <v>31</v>
       </c>
       <c r="E567" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="F567" t="s">
         <v>32</v>
@@ -35193,7 +35187,7 @@
     </row>
     <row r="568" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A568" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B568" t="s">
         <v>17</v>
@@ -35249,7 +35243,7 @@
     </row>
     <row r="569" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A569" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B569" t="s">
         <v>17</v>
@@ -35305,7 +35299,7 @@
     </row>
     <row r="570" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A570" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="B570" t="s">
         <v>17</v>
@@ -35361,7 +35355,7 @@
     </row>
     <row r="571" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A571" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B571" t="s">
         <v>17</v>
@@ -35417,7 +35411,7 @@
     </row>
     <row r="572" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A572" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B572" t="s">
         <v>141</v>
@@ -35473,7 +35467,7 @@
     </row>
     <row r="573" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A573" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B573" t="s">
         <v>1</v>
@@ -35529,7 +35523,7 @@
     </row>
     <row r="574" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A574" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B574" t="s">
         <v>1</v>
@@ -35541,7 +35535,7 @@
         <v>45</v>
       </c>
       <c r="E574" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="F574" t="s">
         <v>22</v>
@@ -35585,7 +35579,7 @@
     </row>
     <row r="575" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A575" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B575" t="s">
         <v>1</v>
@@ -35641,7 +35635,7 @@
     </row>
     <row r="576" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A576" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B576" t="s">
         <v>1</v>
@@ -35697,7 +35691,7 @@
     </row>
     <row r="577" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A577" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B577" t="s">
         <v>1</v>
@@ -35753,7 +35747,7 @@
     </row>
     <row r="578" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A578" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B578" t="s">
         <v>1</v>
@@ -35809,7 +35803,7 @@
     </row>
     <row r="579" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A579" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B579" t="s">
         <v>1</v>
@@ -35865,7 +35859,7 @@
     </row>
     <row r="580" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A580" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B580" t="s">
         <v>17</v>
@@ -35921,7 +35915,7 @@
     </row>
     <row r="581" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A581" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B581" t="s">
         <v>1</v>
@@ -35930,7 +35924,7 @@
         <v>29</v>
       </c>
       <c r="D581" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="E581" t="s">
         <v>7</v>
@@ -35977,7 +35971,7 @@
     </row>
     <row r="582" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A582" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B582" t="s">
         <v>1</v>
@@ -36033,7 +36027,7 @@
     </row>
     <row r="583" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A583" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B583" t="s">
         <v>1</v>
@@ -36089,7 +36083,7 @@
     </row>
     <row r="584" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A584" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B584" t="s">
         <v>1</v>
@@ -36145,7 +36139,7 @@
     </row>
     <row r="585" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A585" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B585" t="s">
         <v>1</v>
@@ -36201,7 +36195,7 @@
     </row>
     <row r="586" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A586" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B586" t="s">
         <v>1</v>
@@ -36257,7 +36251,7 @@
     </row>
     <row r="587" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A587" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B587" t="s">
         <v>1</v>
@@ -36313,7 +36307,7 @@
     </row>
     <row r="588" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A588" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B588" t="s">
         <v>1</v>
@@ -36369,7 +36363,7 @@
     </row>
     <row r="589" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A589" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B589" t="s">
         <v>1</v>
@@ -36378,7 +36372,7 @@
         <v>2</v>
       </c>
       <c r="D589" t="s">
-        <v>717</v>
+        <v>31</v>
       </c>
       <c r="E589" t="s">
         <v>4</v>
@@ -36425,7 +36419,7 @@
     </row>
     <row r="590" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A590" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="B590" t="s">
         <v>141</v>
@@ -36437,7 +36431,7 @@
         <v>45</v>
       </c>
       <c r="E590" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="F590" t="s">
         <v>22</v>
@@ -36481,7 +36475,7 @@
     </row>
     <row r="591" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A591" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="B591" t="s">
         <v>17</v>
@@ -36537,7 +36531,7 @@
     </row>
     <row r="592" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A592" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="B592" t="s">
         <v>17</v>
@@ -36593,7 +36587,7 @@
     </row>
     <row r="593" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A593" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="B593" t="s">
         <v>17</v>
@@ -36649,7 +36643,7 @@
     </row>
     <row r="594" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A594" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="B594" t="s">
         <v>1</v>
@@ -36705,7 +36699,7 @@
     </row>
     <row r="595" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A595" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="B595" t="s">
         <v>17</v>
@@ -36761,7 +36755,7 @@
     </row>
     <row r="596" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A596" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="B596" t="s">
         <v>1</v>
@@ -36817,7 +36811,7 @@
     </row>
     <row r="597" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A597" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="B597" t="s">
         <v>1</v>
@@ -36873,7 +36867,7 @@
     </row>
     <row r="598" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A598" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="B598" t="s">
         <v>17</v>
@@ -36885,7 +36879,7 @@
         <v>45</v>
       </c>
       <c r="E598" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="F598" t="s">
         <v>35</v>
@@ -36929,7 +36923,7 @@
     </row>
     <row r="599" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A599" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="B599" t="s">
         <v>1</v>
@@ -36944,7 +36938,7 @@
         <v>7</v>
       </c>
       <c r="F599" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="G599" t="s">
         <v>6</v>
@@ -36985,7 +36979,7 @@
     </row>
     <row r="600" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A600" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="B600" t="s">
         <v>1</v>
@@ -37041,7 +37035,7 @@
     </row>
     <row r="601" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A601" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="B601" t="s">
         <v>1</v>
@@ -37097,7 +37091,7 @@
     </row>
     <row r="602" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A602" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B602" t="s">
         <v>1</v>
@@ -37153,7 +37147,7 @@
     </row>
     <row r="603" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A603" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="B603" t="s">
         <v>1</v>
@@ -37209,7 +37203,7 @@
     </row>
     <row r="604" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A604" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="B604" t="s">
         <v>1</v>
@@ -37265,7 +37259,7 @@
     </row>
     <row r="605" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A605" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="B605" t="s">
         <v>17</v>
@@ -37321,7 +37315,7 @@
     </row>
     <row r="606" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A606" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="B606" t="s">
         <v>1</v>
@@ -37377,7 +37371,7 @@
     </row>
     <row r="607" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A607" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="B607" t="s">
         <v>1</v>
@@ -37433,7 +37427,7 @@
     </row>
     <row r="608" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A608" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="B608" t="s">
         <v>1</v>
@@ -37489,7 +37483,7 @@
     </row>
     <row r="609" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A609" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="B609" t="s">
         <v>1</v>
@@ -37545,7 +37539,7 @@
     </row>
     <row r="610" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A610" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="B610" t="s">
         <v>1</v>
@@ -37601,7 +37595,7 @@
     </row>
     <row r="611" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A611" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="B611" t="s">
         <v>1</v>
@@ -37657,7 +37651,7 @@
     </row>
     <row r="612" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A612" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="B612" t="s">
         <v>17</v>
@@ -37713,7 +37707,7 @@
     </row>
     <row r="613" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A613" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="B613" t="s">
         <v>1</v>
@@ -37725,7 +37719,7 @@
         <v>31</v>
       </c>
       <c r="E613" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="F613" t="s">
         <v>22</v>
@@ -37769,7 +37763,7 @@
     </row>
     <row r="614" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A614" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="B614" t="s">
         <v>1</v>
@@ -37825,7 +37819,7 @@
     </row>
     <row r="615" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A615" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="B615" t="s">
         <v>1</v>
@@ -37881,7 +37875,7 @@
     </row>
     <row r="616" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A616" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="B616" t="s">
         <v>1</v>
@@ -37893,7 +37887,7 @@
         <v>9</v>
       </c>
       <c r="E616" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="F616" t="s">
         <v>25</v>
@@ -37937,7 +37931,7 @@
     </row>
     <row r="617" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A617" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="B617" t="s">
         <v>1</v>
@@ -37993,7 +37987,7 @@
     </row>
     <row r="618" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A618" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="B618" t="s">
         <v>1</v>
@@ -38005,7 +37999,7 @@
         <v>18</v>
       </c>
       <c r="E618" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="F618" t="s">
         <v>93</v>
@@ -38014,7 +38008,7 @@
         <v>14</v>
       </c>
       <c r="H618" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="I618">
         <v>193</v>
@@ -38049,7 +38043,7 @@
     </row>
     <row r="619" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A619" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="B619" t="s">
         <v>1</v>
@@ -38105,7 +38099,7 @@
     </row>
     <row r="620" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A620" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="B620" t="s">
         <v>1</v>
@@ -38161,7 +38155,7 @@
     </row>
     <row r="621" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A621" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="B621" t="s">
         <v>1</v>
@@ -38217,7 +38211,7 @@
     </row>
     <row r="622" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A622" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="B622" t="s">
         <v>1</v>
@@ -38273,7 +38267,7 @@
     </row>
     <row r="623" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A623" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="B623" t="s">
         <v>17</v>
@@ -38329,7 +38323,7 @@
     </row>
     <row r="624" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A624" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="B624" t="s">
         <v>1</v>
@@ -38385,7 +38379,7 @@
     </row>
     <row r="625" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A625" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="B625" t="s">
         <v>17</v>
@@ -38441,7 +38435,7 @@
     </row>
     <row r="626" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A626" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="B626" t="s">
         <v>1</v>
@@ -38497,7 +38491,7 @@
     </row>
     <row r="627" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A627" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="B627" t="s">
         <v>1</v>
@@ -38553,7 +38547,7 @@
     </row>
     <row r="628" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A628" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="B628" t="s">
         <v>17</v>
@@ -38568,7 +38562,7 @@
         <v>324</v>
       </c>
       <c r="F628" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="G628" t="s">
         <v>14</v>
@@ -38609,7 +38603,7 @@
     </row>
     <row r="629" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A629" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="B629" t="s">
         <v>1</v>
@@ -38665,7 +38659,7 @@
     </row>
     <row r="630" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A630" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="B630" t="s">
         <v>1</v>
@@ -38721,7 +38715,7 @@
     </row>
     <row r="631" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A631" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="B631" t="s">
         <v>17</v>
@@ -38777,7 +38771,7 @@
     </row>
     <row r="632" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A632" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="B632" t="s">
         <v>17</v>
@@ -38833,7 +38827,7 @@
     </row>
     <row r="633" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A633" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="B633" t="s">
         <v>17</v>
@@ -38889,7 +38883,7 @@
     </row>
     <row r="634" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A634" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="B634" t="s">
         <v>1</v>
@@ -38945,7 +38939,7 @@
     </row>
     <row r="635" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A635" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="B635" t="s">
         <v>17</v>
@@ -39001,7 +38995,7 @@
     </row>
     <row r="636" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A636" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="B636" t="s">
         <v>17</v>
@@ -39057,7 +39051,7 @@
     </row>
     <row r="637" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A637" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="B637" t="s">
         <v>17</v>
@@ -39113,7 +39107,7 @@
     </row>
     <row r="638" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A638" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="B638" t="s">
         <v>17</v>
@@ -39169,7 +39163,7 @@
     </row>
     <row r="639" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A639" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="B639" t="s">
         <v>17</v>
@@ -39225,7 +39219,7 @@
     </row>
     <row r="640" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A640" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="B640" t="s">
         <v>1</v>
@@ -39281,7 +39275,7 @@
     </row>
     <row r="641" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A641" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="B641" t="s">
         <v>17</v>
@@ -39337,7 +39331,7 @@
     </row>
     <row r="642" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A642" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="B642" t="s">
         <v>1</v>
@@ -39390,7 +39384,7 @@
     </row>
     <row r="643" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A643" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="B643" t="s">
         <v>141</v>
@@ -39446,7 +39440,7 @@
     </row>
     <row r="644" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A644" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="B644" t="s">
         <v>1</v>
@@ -39502,7 +39496,7 @@
     </row>
     <row r="645" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A645" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="B645" t="s">
         <v>1</v>
@@ -39558,7 +39552,7 @@
     </row>
     <row r="646" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A646" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="B646" t="s">
         <v>1</v>
@@ -39614,7 +39608,7 @@
     </row>
     <row r="647" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A647" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="B647" t="s">
         <v>1</v>
@@ -39670,7 +39664,7 @@
     </row>
     <row r="648" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A648" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="B648" t="s">
         <v>1</v>
@@ -39726,7 +39720,7 @@
     </row>
     <row r="649" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A649" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="B649" t="s">
         <v>1</v>
@@ -39782,7 +39776,7 @@
     </row>
     <row r="650" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A650" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="B650" t="s">
         <v>1</v>
@@ -39838,7 +39832,7 @@
     </row>
     <row r="651" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A651" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="B651" t="s">
         <v>1</v>
@@ -39894,7 +39888,7 @@
     </row>
     <row r="652" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A652" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="B652" t="s">
         <v>17</v>
@@ -39950,7 +39944,7 @@
     </row>
     <row r="653" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A653" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="B653" t="s">
         <v>1</v>
@@ -40006,7 +40000,7 @@
     </row>
     <row r="654" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A654" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="B654" t="s">
         <v>17</v>
@@ -40062,7 +40056,7 @@
     </row>
     <row r="655" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A655" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="B655" t="s">
         <v>1</v>
@@ -40118,7 +40112,7 @@
     </row>
     <row r="656" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A656" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="B656" t="s">
         <v>141</v>
@@ -40174,7 +40168,7 @@
     </row>
     <row r="657" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A657" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="B657" t="s">
         <v>1</v>
@@ -40230,7 +40224,7 @@
     </row>
     <row r="658" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A658" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="B658" t="s">
         <v>1</v>
@@ -40286,7 +40280,7 @@
     </row>
     <row r="659" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A659" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="B659" t="s">
         <v>7</v>
@@ -40342,7 +40336,7 @@
     </row>
     <row r="660" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A660" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="B660" t="s">
         <v>17</v>
@@ -40398,7 +40392,7 @@
     </row>
     <row r="661" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A661" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="B661" t="s">
         <v>1</v>
@@ -40454,7 +40448,7 @@
     </row>
     <row r="662" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A662" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="B662" t="s">
         <v>1</v>
@@ -40510,7 +40504,7 @@
     </row>
     <row r="663" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A663" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="B663" t="s">
         <v>17</v>
@@ -40566,7 +40560,7 @@
     </row>
     <row r="664" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A664" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="B664" t="s">
         <v>1</v>
@@ -40622,7 +40616,7 @@
     </row>
     <row r="665" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A665" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="B665" t="s">
         <v>17</v>
@@ -40678,7 +40672,7 @@
     </row>
     <row r="666" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A666" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="B666" t="s">
         <v>17</v>
@@ -40690,7 +40684,7 @@
         <v>9</v>
       </c>
       <c r="E666" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="F666" t="s">
         <v>35</v>
@@ -40734,7 +40728,7 @@
     </row>
     <row r="667" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A667" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="B667" t="s">
         <v>1</v>
@@ -40790,7 +40784,7 @@
     </row>
     <row r="668" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A668" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="B668" t="s">
         <v>1</v>
@@ -40846,7 +40840,7 @@
     </row>
     <row r="669" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A669" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="B669" t="s">
         <v>1</v>
@@ -40902,7 +40896,7 @@
     </row>
     <row r="670" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A670" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="B670" t="s">
         <v>17</v>
@@ -40958,7 +40952,7 @@
     </row>
     <row r="671" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A671" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="B671" t="s">
         <v>17</v>
@@ -41014,7 +41008,7 @@
     </row>
     <row r="672" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A672" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="B672" t="s">
         <v>17</v>
@@ -41070,7 +41064,7 @@
     </row>
     <row r="673" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A673" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="B673" t="s">
         <v>17</v>
@@ -41126,7 +41120,7 @@
     </row>
     <row r="674" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A674" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="B674" t="s">
         <v>17</v>
@@ -41182,7 +41176,7 @@
     </row>
     <row r="675" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A675" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="B675" t="s">
         <v>7</v>
@@ -41238,7 +41232,7 @@
     </row>
     <row r="676" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A676" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="B676" t="s">
         <v>1</v>
@@ -41294,7 +41288,7 @@
     </row>
     <row r="677" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A677" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="B677" t="s">
         <v>1</v>
@@ -41350,7 +41344,7 @@
     </row>
     <row r="678" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A678" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="B678" t="s">
         <v>1</v>
@@ -41406,7 +41400,7 @@
     </row>
     <row r="679" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A679" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="B679" t="s">
         <v>17</v>
@@ -41462,7 +41456,7 @@
     </row>
     <row r="680" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A680" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="B680" t="s">
         <v>1</v>
@@ -41518,7 +41512,7 @@
     </row>
     <row r="681" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A681" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="B681" t="s">
         <v>1</v>
@@ -41574,7 +41568,7 @@
     </row>
     <row r="682" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A682" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="B682" t="s">
         <v>1</v>
@@ -41630,7 +41624,7 @@
     </row>
     <row r="683" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A683" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="B683" t="s">
         <v>1</v>
@@ -41639,7 +41633,7 @@
         <v>29</v>
       </c>
       <c r="D683" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="E683" t="s">
         <v>4</v>
@@ -41686,7 +41680,7 @@
     </row>
     <row r="684" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A684" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="B684" t="s">
         <v>1</v>
@@ -41742,7 +41736,7 @@
     </row>
     <row r="685" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A685" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="B685" t="s">
         <v>17</v>
@@ -41798,7 +41792,7 @@
     </row>
     <row r="686" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A686" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="B686" t="s">
         <v>17</v>
@@ -41854,7 +41848,7 @@
     </row>
     <row r="687" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A687" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="B687" t="s">
         <v>1</v>
@@ -41910,7 +41904,7 @@
     </row>
     <row r="688" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A688" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="B688" t="s">
         <v>1</v>
@@ -41966,7 +41960,7 @@
     </row>
     <row r="689" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A689" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="B689" t="s">
         <v>1</v>
@@ -42022,7 +42016,7 @@
     </row>
     <row r="690" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A690" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="B690" t="s">
         <v>17</v>
@@ -42078,7 +42072,7 @@
     </row>
     <row r="691" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A691" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="B691" t="s">
         <v>1</v>
@@ -42134,7 +42128,7 @@
     </row>
     <row r="692" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A692" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="B692" t="s">
         <v>1</v>
@@ -42190,7 +42184,7 @@
     </row>
     <row r="693" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A693" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="B693" t="s">
         <v>1</v>
@@ -42246,7 +42240,7 @@
     </row>
     <row r="694" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A694" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="B694" t="s">
         <v>17</v>
@@ -42302,7 +42296,7 @@
     </row>
     <row r="695" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A695" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="B695" t="s">
         <v>17</v>
@@ -42358,7 +42352,7 @@
     </row>
     <row r="696" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A696" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="B696" t="s">
         <v>1</v>
@@ -42414,7 +42408,7 @@
     </row>
     <row r="697" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A697" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="B697" t="s">
         <v>1</v>
@@ -42470,7 +42464,7 @@
     </row>
     <row r="698" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A698" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="B698" t="s">
         <v>1</v>
@@ -42526,7 +42520,7 @@
     </row>
     <row r="699" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A699" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="B699" t="s">
         <v>1</v>
@@ -42582,7 +42576,7 @@
     </row>
     <row r="700" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A700" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="B700" t="s">
         <v>1</v>
@@ -42638,7 +42632,7 @@
     </row>
     <row r="701" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A701" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="B701" t="s">
         <v>1</v>
@@ -42694,7 +42688,7 @@
     </row>
     <row r="702" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A702" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="B702" t="s">
         <v>1</v>
@@ -42750,7 +42744,7 @@
     </row>
     <row r="703" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A703" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="B703" t="s">
         <v>1</v>
@@ -42806,7 +42800,7 @@
     </row>
     <row r="704" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A704" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="B704" t="s">
         <v>1</v>
@@ -42862,7 +42856,7 @@
     </row>
     <row r="705" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A705" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="B705" t="s">
         <v>1</v>
@@ -42918,7 +42912,7 @@
     </row>
     <row r="706" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A706" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="B706" t="s">
         <v>1</v>
@@ -42974,7 +42968,7 @@
     </row>
     <row r="707" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A707" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="B707" t="s">
         <v>1</v>
@@ -42986,7 +42980,7 @@
         <v>18</v>
       </c>
       <c r="E707" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="F707" t="s">
         <v>22</v>
@@ -43030,7 +43024,7 @@
     </row>
     <row r="708" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A708" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="B708" t="s">
         <v>1</v>
@@ -43086,7 +43080,7 @@
     </row>
     <row r="709" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A709" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="B709" t="s">
         <v>17</v>
@@ -43142,7 +43136,7 @@
     </row>
     <row r="710" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A710" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="B710" t="s">
         <v>1</v>
@@ -43198,7 +43192,7 @@
     </row>
     <row r="711" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A711" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="B711" t="s">
         <v>1</v>
@@ -43254,7 +43248,7 @@
     </row>
     <row r="712" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A712" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="B712" t="s">
         <v>1</v>
@@ -43266,7 +43260,7 @@
         <v>78</v>
       </c>
       <c r="E712" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="F712" t="s">
         <v>5</v>
@@ -43310,7 +43304,7 @@
     </row>
     <row r="713" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A713" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="B713" t="s">
         <v>1</v>
@@ -43322,7 +43316,7 @@
         <v>31</v>
       </c>
       <c r="E713" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="F713" t="s">
         <v>35</v>
@@ -43366,7 +43360,7 @@
     </row>
     <row r="714" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A714" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="B714" t="s">
         <v>1</v>
@@ -43422,7 +43416,7 @@
     </row>
     <row r="715" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A715" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="B715" t="s">
         <v>17</v>
